--- a/python-script/input.xlsx
+++ b/python-script/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Leetcode-Details-for-tracking-\python-script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96B4592-8F35-4461-B201-82662D30FEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CA2EF5-5A3F-43DC-8884-E3DC79E498FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{96AB9B21-5AD4-40FC-9030-64E429A5943A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>harshitbhatt</t>
   </si>
@@ -34,6 +34,60 @@
   </si>
   <si>
     <t>UniversatilityFactor</t>
+  </si>
+  <si>
+    <t>architjain_128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harshit Bhatt </t>
+  </si>
+  <si>
+    <t>Himik Nainwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archit Jain </t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Division </t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>divyanshu_bathla</t>
+  </si>
+  <si>
+    <t>Divyanshu Bathla</t>
+  </si>
+  <si>
+    <t>C!</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>1`</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -385,30 +439,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EC90FD-203B-4363-B17C-9D1B97A58CC7}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
